--- a/Database/Notes marketplace.xlsx
+++ b/Database/Notes marketplace.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Online Learning\Final Notes-MarketPlace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Online Learning\Final Notes-MarketPlace\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F7B898-F589-4D61-85FE-EF6993CE19B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBD2FD-E33E-46C2-A92A-AB4C9098A966}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11196" yWindow="1968" windowWidth="14424" windowHeight="8964" xr2:uid="{DC52EA3B-7104-4C37-8F68-1ADF3F77FAA3}"/>
+    <workbookView minimized="1" xWindow="8616" yWindow="2052" windowWidth="14424" windowHeight="8964" xr2:uid="{DC52EA3B-7104-4C37-8F68-1ADF3F77FAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="154">
   <si>
     <t>Notes MarketPlace</t>
   </si>
@@ -683,21 +683,21 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1018,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B429900-9447-402A-929B-FEB3739A1BDC}">
   <dimension ref="B1:X146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
@@ -1031,20 +1031,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -1058,20 +1058,20 @@
       <c r="X1" s="4"/>
     </row>
     <row r="3" spans="2:24" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1095,13 +1095,13 @@
       <c r="G7" s="5"/>
     </row>
     <row r="9" spans="2:24" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="11" spans="2:24" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
@@ -1413,13 +1413,13 @@
       <c r="C36" s="23"/>
     </row>
     <row r="39" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
     </row>
     <row r="41" spans="2:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
@@ -1563,13 +1563,13 @@
       <c r="F53" s="14"/>
     </row>
     <row r="54" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1863,13 +1863,13 @@
     </row>
     <row r="77" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
     </row>
     <row r="79" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1984,13 +1984,13 @@
     </row>
     <row r="91" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="2:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
     </row>
     <row r="93" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2082,17 +2082,17 @@
       <c r="B103" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C103" s="27"/>
+      <c r="C103" s="29"/>
     </row>
     <row r="104" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="105" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
     </row>
     <row r="106" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2287,13 +2287,13 @@
     </row>
     <row r="127" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="128" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
     </row>
     <row r="129" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="19"/>
@@ -2377,13 +2377,13 @@
     </row>
     <row r="138" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="139" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
     </row>
     <row r="140" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2474,15 +2474,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:F54"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="B139:F139"/>
     <mergeCell ref="B126:C126"/>
@@ -2493,6 +2484,15 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B105:F105"/>
     <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2503,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E691AD0-9E83-4F8B-9A0B-F09FAA3FED49}">
   <dimension ref="B1:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:F36"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2517,36 +2517,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="3" spans="2:13" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="6" spans="2:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
@@ -2555,13 +2555,13 @@
       <c r="C6" s="23"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="10" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
@@ -2727,7 +2727,7 @@
         <v>119</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
@@ -2744,9 +2744,7 @@
       <c r="C29" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="9">
-        <v>200</v>
-      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
         <v>27</v>
       </c>
@@ -2764,7 +2762,9 @@
       <c r="D30" s="9">
         <v>200</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="F30" s="22" t="s">
         <v>122</v>
       </c>
@@ -3031,16 +3031,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
